--- a/natmiOut/OldD7/LR-pairs_lrc2p/Cxcl12-Itgb3.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Cxcl12-Itgb3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Itgb3</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>184.693097241481</v>
+        <v>198.977211</v>
       </c>
       <c r="H2">
-        <v>184.693097241481</v>
+        <v>596.9316329999999</v>
       </c>
       <c r="I2">
-        <v>0.4666431855336483</v>
+        <v>0.440791350614085</v>
       </c>
       <c r="J2">
-        <v>0.4666431855336483</v>
+        <v>0.4407913506140851</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.44811141007594</v>
+        <v>3.778439</v>
       </c>
       <c r="N2">
-        <v>1.44811141007594</v>
+        <v>11.335317</v>
       </c>
       <c r="O2">
-        <v>0.2309218362869202</v>
+        <v>0.4252971528324392</v>
       </c>
       <c r="P2">
-        <v>0.2309218362869202</v>
+        <v>0.4252971528324392</v>
       </c>
       <c r="Q2">
-        <v>267.4561814776538</v>
+        <v>751.8232541536289</v>
       </c>
       <c r="R2">
-        <v>267.4561814776538</v>
+        <v>6766.40928738266</v>
       </c>
       <c r="S2">
-        <v>0.1077581012942081</v>
+        <v>0.1874673064093358</v>
       </c>
       <c r="T2">
-        <v>0.1077581012942081</v>
+        <v>0.1874673064093358</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>184.693097241481</v>
+        <v>198.977211</v>
       </c>
       <c r="H3">
-        <v>184.693097241481</v>
+        <v>596.9316329999999</v>
       </c>
       <c r="I3">
-        <v>0.4666431855336483</v>
+        <v>0.440791350614085</v>
       </c>
       <c r="J3">
-        <v>0.4666431855336483</v>
+        <v>0.4407913506140851</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.2090467085897</v>
+        <v>4.333403333333333</v>
       </c>
       <c r="N3">
-        <v>4.2090467085897</v>
+        <v>13.00021</v>
       </c>
       <c r="O3">
-        <v>0.6711920009759337</v>
+        <v>0.4877633593505858</v>
       </c>
       <c r="P3">
-        <v>0.6711920009759337</v>
+        <v>0.4877633593505858</v>
       </c>
       <c r="Q3">
-        <v>777.381873043493</v>
+        <v>862.2485094047698</v>
       </c>
       <c r="R3">
-        <v>777.381873043493</v>
+        <v>7760.236584642928</v>
       </c>
       <c r="S3">
-        <v>0.3132071734401132</v>
+        <v>0.215001869948208</v>
       </c>
       <c r="T3">
-        <v>0.3132071734401132</v>
+        <v>0.2150018699482081</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>184.693097241481</v>
+        <v>198.977211</v>
       </c>
       <c r="H4">
-        <v>184.693097241481</v>
+        <v>596.9316329999999</v>
       </c>
       <c r="I4">
-        <v>0.4666431855336483</v>
+        <v>0.440791350614085</v>
       </c>
       <c r="J4">
-        <v>0.4666431855336483</v>
+        <v>0.4407913506140851</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.231304550477101</v>
+        <v>0.2909853333333334</v>
       </c>
       <c r="N4">
-        <v>0.231304550477101</v>
+        <v>0.8729560000000001</v>
       </c>
       <c r="O4">
-        <v>0.03688478052589321</v>
+        <v>0.03275300561492853</v>
       </c>
       <c r="P4">
-        <v>0.03688478052589321</v>
+        <v>0.03275300561492853</v>
       </c>
       <c r="Q4">
-        <v>42.72035383366427</v>
+        <v>57.899450068572</v>
       </c>
       <c r="R4">
-        <v>42.72035383366427</v>
+        <v>521.095050617148</v>
       </c>
       <c r="S4">
-        <v>0.01721203148231228</v>
+        <v>0.01443724158167506</v>
       </c>
       <c r="T4">
-        <v>0.01721203148231228</v>
+        <v>0.01443724158167506</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>184.693097241481</v>
+        <v>198.977211</v>
       </c>
       <c r="H5">
-        <v>184.693097241481</v>
+        <v>596.9316329999999</v>
       </c>
       <c r="I5">
-        <v>0.4666431855336483</v>
+        <v>0.440791350614085</v>
       </c>
       <c r="J5">
-        <v>0.4666431855336483</v>
+        <v>0.4407913506140851</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.38253981966764</v>
+        <v>0.4814053333333333</v>
       </c>
       <c r="N5">
-        <v>0.38253981966764</v>
+        <v>1.444216</v>
       </c>
       <c r="O5">
-        <v>0.06100138221125286</v>
+        <v>0.0541864822020464</v>
       </c>
       <c r="P5">
-        <v>0.06100138221125286</v>
+        <v>0.05418648220204641</v>
       </c>
       <c r="Q5">
-        <v>70.65246411261404</v>
+        <v>95.78869058719198</v>
       </c>
       <c r="R5">
-        <v>70.65246411261404</v>
+        <v>862.0982152847279</v>
       </c>
       <c r="S5">
-        <v>0.02846587931701466</v>
+        <v>0.02388493267486611</v>
       </c>
       <c r="T5">
-        <v>0.02846587931701466</v>
+        <v>0.02388493267486612</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>195.763767480216</v>
+        <v>196.7746736666667</v>
       </c>
       <c r="H6">
-        <v>195.763767480216</v>
+        <v>590.324021</v>
       </c>
       <c r="I6">
-        <v>0.4946141974629212</v>
+        <v>0.4359121013721307</v>
       </c>
       <c r="J6">
-        <v>0.4946141974629212</v>
+        <v>0.4359121013721308</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.44811141007594</v>
+        <v>3.778439</v>
       </c>
       <c r="N6">
-        <v>1.44811141007594</v>
+        <v>11.335317</v>
       </c>
       <c r="O6">
-        <v>0.2309218362869202</v>
+        <v>0.4252971528324392</v>
       </c>
       <c r="P6">
-        <v>0.2309218362869202</v>
+        <v>0.4252971528324392</v>
       </c>
       <c r="Q6">
-        <v>283.4877453675541</v>
+        <v>743.5011011944064</v>
       </c>
       <c r="R6">
-        <v>283.4877453675541</v>
+        <v>6691.509910749657</v>
       </c>
       <c r="S6">
-        <v>0.1142172187317191</v>
+        <v>0.1853921755987728</v>
       </c>
       <c r="T6">
-        <v>0.1142172187317191</v>
+        <v>0.1853921755987729</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>195.763767480216</v>
+        <v>196.7746736666667</v>
       </c>
       <c r="H7">
-        <v>195.763767480216</v>
+        <v>590.324021</v>
       </c>
       <c r="I7">
-        <v>0.4946141974629212</v>
+        <v>0.4359121013721307</v>
       </c>
       <c r="J7">
-        <v>0.4946141974629212</v>
+        <v>0.4359121013721308</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.2090467085897</v>
+        <v>4.333403333333333</v>
       </c>
       <c r="N7">
-        <v>4.2090467085897</v>
+        <v>13.00021</v>
       </c>
       <c r="O7">
-        <v>0.6711920009759337</v>
+        <v>0.4877633593505858</v>
       </c>
       <c r="P7">
-        <v>0.6711920009759337</v>
+        <v>0.4877633593505858</v>
       </c>
       <c r="Q7">
-        <v>823.9788411737223</v>
+        <v>852.7040267827122</v>
       </c>
       <c r="R7">
-        <v>823.9788411737223</v>
+        <v>7674.33624104441</v>
       </c>
       <c r="S7">
-        <v>0.3319810929062437</v>
+        <v>0.2126219509468436</v>
       </c>
       <c r="T7">
-        <v>0.3319810929062437</v>
+        <v>0.2126219509468436</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>195.763767480216</v>
+        <v>196.7746736666667</v>
       </c>
       <c r="H8">
-        <v>195.763767480216</v>
+        <v>590.324021</v>
       </c>
       <c r="I8">
-        <v>0.4946141974629212</v>
+        <v>0.4359121013721307</v>
       </c>
       <c r="J8">
-        <v>0.4946141974629212</v>
+        <v>0.4359121013721308</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.231304550477101</v>
+        <v>0.2909853333333334</v>
       </c>
       <c r="N8">
-        <v>0.231304550477101</v>
+        <v>0.8729560000000001</v>
       </c>
       <c r="O8">
-        <v>0.03688478052589321</v>
+        <v>0.03275300561492853</v>
       </c>
       <c r="P8">
-        <v>0.03688478052589321</v>
+        <v>0.03275300561492853</v>
       </c>
       <c r="Q8">
-        <v>45.28105023671508</v>
+        <v>57.2585440084529</v>
       </c>
       <c r="R8">
-        <v>45.28105023671508</v>
+        <v>515.3268960760761</v>
       </c>
       <c r="S8">
-        <v>0.01824373611841066</v>
+        <v>0.01427743150385669</v>
       </c>
       <c r="T8">
-        <v>0.01824373611841066</v>
+        <v>0.01427743150385669</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>195.763767480216</v>
+        <v>196.7746736666667</v>
       </c>
       <c r="H9">
-        <v>195.763767480216</v>
+        <v>590.324021</v>
       </c>
       <c r="I9">
-        <v>0.4946141974629212</v>
+        <v>0.4359121013721307</v>
       </c>
       <c r="J9">
-        <v>0.4946141974629212</v>
+        <v>0.4359121013721308</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.38253981966764</v>
+        <v>0.4814053333333333</v>
       </c>
       <c r="N9">
-        <v>0.38253981966764</v>
+        <v>1.444216</v>
       </c>
       <c r="O9">
-        <v>0.06100138221125286</v>
+        <v>0.0541864822020464</v>
       </c>
       <c r="P9">
-        <v>0.06100138221125286</v>
+        <v>0.05418648220204641</v>
       </c>
       <c r="Q9">
-        <v>74.88743630933963</v>
+        <v>94.72837736805955</v>
       </c>
       <c r="R9">
-        <v>74.88743630933963</v>
+        <v>852.555396312536</v>
       </c>
       <c r="S9">
-        <v>0.03017214970654775</v>
+        <v>0.02362054332265761</v>
       </c>
       <c r="T9">
-        <v>0.03017214970654775</v>
+        <v>0.02362054332265761</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,61 +1018,61 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>15.3339728328425</v>
+        <v>0.158424</v>
       </c>
       <c r="H10">
-        <v>15.3339728328425</v>
+        <v>0.475272</v>
       </c>
       <c r="I10">
-        <v>0.0387426170034305</v>
+        <v>0.0003509544061791369</v>
       </c>
       <c r="J10">
-        <v>0.0387426170034305</v>
+        <v>0.0003509544061791369</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.44811141007594</v>
+        <v>3.778439</v>
       </c>
       <c r="N10">
-        <v>1.44811141007594</v>
+        <v>11.335317</v>
       </c>
       <c r="O10">
-        <v>0.2309218362869202</v>
+        <v>0.4252971528324392</v>
       </c>
       <c r="P10">
-        <v>0.2309218362869202</v>
+        <v>0.4252971528324392</v>
       </c>
       <c r="Q10">
-        <v>22.20530102103371</v>
+        <v>0.5985954201360001</v>
       </c>
       <c r="R10">
-        <v>22.20530102103371</v>
+        <v>5.387358781224</v>
       </c>
       <c r="S10">
-        <v>0.008946516260993029</v>
+        <v>0.0001492599097219863</v>
       </c>
       <c r="T10">
-        <v>0.008946516260993029</v>
+        <v>0.0001492599097219863</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,61 +1080,61 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>15.3339728328425</v>
+        <v>0.158424</v>
       </c>
       <c r="H11">
-        <v>15.3339728328425</v>
+        <v>0.475272</v>
       </c>
       <c r="I11">
-        <v>0.0387426170034305</v>
+        <v>0.0003509544061791369</v>
       </c>
       <c r="J11">
-        <v>0.0387426170034305</v>
+        <v>0.0003509544061791369</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.2090467085897</v>
+        <v>4.333403333333333</v>
       </c>
       <c r="N11">
-        <v>4.2090467085897</v>
+        <v>13.00021</v>
       </c>
       <c r="O11">
-        <v>0.6711920009759337</v>
+        <v>0.4877633593505858</v>
       </c>
       <c r="P11">
-        <v>0.6711920009759337</v>
+        <v>0.4877633593505858</v>
       </c>
       <c r="Q11">
-        <v>64.5414078816796</v>
+        <v>0.68651508968</v>
       </c>
       <c r="R11">
-        <v>64.5414078816796</v>
+        <v>6.17863580712</v>
       </c>
       <c r="S11">
-        <v>0.02600373462957675</v>
+        <v>0.0001711827001368258</v>
       </c>
       <c r="T11">
-        <v>0.02600373462957675</v>
+        <v>0.0001711827001368258</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1142,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>15.3339728328425</v>
+        <v>0.158424</v>
       </c>
       <c r="H12">
-        <v>15.3339728328425</v>
+        <v>0.475272</v>
       </c>
       <c r="I12">
-        <v>0.0387426170034305</v>
+        <v>0.0003509544061791369</v>
       </c>
       <c r="J12">
-        <v>0.0387426170034305</v>
+        <v>0.0003509544061791369</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.231304550477101</v>
+        <v>0.2909853333333334</v>
       </c>
       <c r="N12">
-        <v>0.231304550477101</v>
+        <v>0.8729560000000001</v>
       </c>
       <c r="O12">
-        <v>0.03688478052589321</v>
+        <v>0.03275300561492853</v>
       </c>
       <c r="P12">
-        <v>0.03688478052589321</v>
+        <v>0.03275300561492853</v>
       </c>
       <c r="Q12">
-        <v>3.546817693128713</v>
+        <v>0.04609906044800001</v>
       </c>
       <c r="R12">
-        <v>3.546817693128713</v>
+        <v>0.4148915440320001</v>
       </c>
       <c r="S12">
-        <v>0.001429012925170272</v>
+        <v>1.149481163616918E-05</v>
       </c>
       <c r="T12">
-        <v>0.001429012925170272</v>
+        <v>1.149481163616918E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.158424</v>
+      </c>
+      <c r="H13">
+        <v>0.475272</v>
+      </c>
+      <c r="I13">
+        <v>0.0003509544061791369</v>
+      </c>
+      <c r="J13">
+        <v>0.0003509544061791369</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.4814053333333333</v>
+      </c>
+      <c r="N13">
+        <v>1.444216</v>
+      </c>
+      <c r="O13">
+        <v>0.0541864822020464</v>
+      </c>
+      <c r="P13">
+        <v>0.05418648220204641</v>
+      </c>
+      <c r="Q13">
+        <v>0.07626615852800001</v>
+      </c>
+      <c r="R13">
+        <v>0.686395426752</v>
+      </c>
+      <c r="S13">
+        <v>1.901698468415556E-05</v>
+      </c>
+      <c r="T13">
+        <v>1.901698468415557E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>55.49875533333334</v>
+      </c>
+      <c r="H14">
+        <v>166.496266</v>
+      </c>
+      <c r="I14">
+        <v>0.122945593607605</v>
+      </c>
+      <c r="J14">
+        <v>0.122945593607605</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>3.778439</v>
+      </c>
+      <c r="N14">
+        <v>11.335317</v>
+      </c>
+      <c r="O14">
+        <v>0.4252971528324392</v>
+      </c>
+      <c r="P14">
+        <v>0.4252971528324392</v>
+      </c>
+      <c r="Q14">
+        <v>209.6986616029247</v>
+      </c>
+      <c r="R14">
+        <v>1887.287954426322</v>
+      </c>
+      <c r="S14">
+        <v>0.05228841091460853</v>
+      </c>
+      <c r="T14">
+        <v>0.05228841091460853</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>55.49875533333334</v>
+      </c>
+      <c r="H15">
+        <v>166.496266</v>
+      </c>
+      <c r="I15">
+        <v>0.122945593607605</v>
+      </c>
+      <c r="J15">
+        <v>0.122945593607605</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>4.333403333333333</v>
+      </c>
+      <c r="N15">
+        <v>13.00021</v>
+      </c>
+      <c r="O15">
+        <v>0.4877633593505858</v>
+      </c>
+      <c r="P15">
+        <v>0.4877633593505858</v>
+      </c>
+      <c r="Q15">
+        <v>240.4984913573178</v>
+      </c>
+      <c r="R15">
+        <v>2164.48642221586</v>
+      </c>
+      <c r="S15">
+        <v>0.0599683557553973</v>
+      </c>
+      <c r="T15">
+        <v>0.05996835575539731</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>15.3339728328425</v>
-      </c>
-      <c r="H13">
-        <v>15.3339728328425</v>
-      </c>
-      <c r="I13">
-        <v>0.0387426170034305</v>
-      </c>
-      <c r="J13">
-        <v>0.0387426170034305</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0.38253981966764</v>
-      </c>
-      <c r="N13">
-        <v>0.38253981966764</v>
-      </c>
-      <c r="O13">
-        <v>0.06100138221125286</v>
-      </c>
-      <c r="P13">
-        <v>0.06100138221125286</v>
-      </c>
-      <c r="Q13">
-        <v>5.86585520226406</v>
-      </c>
-      <c r="R13">
-        <v>5.86585520226406</v>
-      </c>
-      <c r="S13">
-        <v>0.002363353187690448</v>
-      </c>
-      <c r="T13">
-        <v>0.002363353187690448</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>55.49875533333334</v>
+      </c>
+      <c r="H16">
+        <v>166.496266</v>
+      </c>
+      <c r="I16">
+        <v>0.122945593607605</v>
+      </c>
+      <c r="J16">
+        <v>0.122945593607605</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.2909853333333334</v>
+      </c>
+      <c r="N16">
+        <v>0.8729560000000001</v>
+      </c>
+      <c r="O16">
+        <v>0.03275300561492853</v>
+      </c>
+      <c r="P16">
+        <v>0.03275300561492853</v>
+      </c>
+      <c r="Q16">
+        <v>16.14932382025512</v>
+      </c>
+      <c r="R16">
+        <v>145.343914382296</v>
+      </c>
+      <c r="S16">
+        <v>0.004026837717760607</v>
+      </c>
+      <c r="T16">
+        <v>0.004026837717760607</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>55.49875533333334</v>
+      </c>
+      <c r="H17">
+        <v>166.496266</v>
+      </c>
+      <c r="I17">
+        <v>0.122945593607605</v>
+      </c>
+      <c r="J17">
+        <v>0.122945593607605</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.4814053333333333</v>
+      </c>
+      <c r="N17">
+        <v>1.444216</v>
+      </c>
+      <c r="O17">
+        <v>0.0541864822020464</v>
+      </c>
+      <c r="P17">
+        <v>0.05418648220204641</v>
+      </c>
+      <c r="Q17">
+        <v>26.71739681082845</v>
+      </c>
+      <c r="R17">
+        <v>240.456571297456</v>
+      </c>
+      <c r="S17">
+        <v>0.006661989219838516</v>
+      </c>
+      <c r="T17">
+        <v>0.006661989219838516</v>
       </c>
     </row>
   </sheetData>
